--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Python\Two-stage Recoverable FLP\Local Branching\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB8C24-599D-4756-9164-84A50555DA46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>|N|</t>
   </si>
@@ -37,21 +43,30 @@
     <t>BC:time</t>
   </si>
   <si>
-    <t>LB1:time</t>
+    <t>LB:time</t>
   </si>
   <si>
-    <t>VNB:time</t>
+    <t>Heu_sol</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>opt_gap</t>
+  </si>
+  <si>
+    <t>PR:time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -59,17 +74,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,22 +140,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +240,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +292,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,437 +541,600 @@
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.324</v>
+        <v>3.8140000000000001</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>29.434000000000001</v>
       </c>
       <c r="G2">
-        <v>20.6</v>
+        <v>111.6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.402</v>
+        <v>14.554</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>225.4</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.7519999999999998</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R2">
+        <v>15.356</v>
+      </c>
+      <c r="S2">
+        <v>52.6</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>301.62400000000002</v>
+      </c>
+      <c r="V2">
+        <v>9.2799999999999976</v>
+      </c>
+      <c r="W2">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.28</v>
+        <v>25.318000000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.442</v>
+        <v>129.92599999999999</v>
       </c>
       <c r="G3">
-        <v>16.4</v>
+        <v>223.2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.404</v>
+        <v>31.765999999999998</v>
       </c>
       <c r="J3">
-        <v>56.8</v>
+        <v>452.8</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>31.24</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>319.8</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.4880000000000013</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="R3">
+        <v>32.74</v>
+      </c>
+      <c r="S3">
+        <v>225.4</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>311.7</v>
+      </c>
+      <c r="V3">
+        <v>12.064</v>
+      </c>
+      <c r="W3">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.51</v>
+        <v>125.134</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8480000000000001</v>
+        <v>205.71199999999999</v>
       </c>
       <c r="G4">
-        <v>24.4</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.51</v>
+        <v>53.613999999999997</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>394.8</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>58.445999999999991</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>303.2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>346.1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R4">
+        <v>55.331999999999987</v>
+      </c>
+      <c r="S4">
+        <v>198.6</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>342.25400000000002</v>
+      </c>
+      <c r="V4">
+        <v>10.994</v>
+      </c>
+      <c r="W4">
+        <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5">
-        <v>0.7799999999999999</v>
+        <v>129.464</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.084</v>
+        <v>148.14599999999999</v>
       </c>
       <c r="G5">
-        <v>24.4</v>
+        <v>208.6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9099999999999999</v>
+        <v>42.712000000000003</v>
       </c>
       <c r="J5">
-        <v>104.4</v>
+        <v>421.2</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>50.01</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>315.8</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>361.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11.462</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.06</v>
+      </c>
+      <c r="R5">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="S5">
+        <v>184.8</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>344.42200000000003</v>
+      </c>
+      <c r="V5" s="4">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6">
-        <v>1.048</v>
+        <v>110.024</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.6</v>
+        <v>59.496000000000002</v>
       </c>
       <c r="G6">
-        <v>28.2</v>
+        <v>106</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.078</v>
+        <v>31.358000000000001</v>
       </c>
       <c r="J6">
-        <v>133.6</v>
+        <v>225.2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>40.35</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>378.9</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>11.507999999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.11</v>
+      </c>
+      <c r="R6" s="3">
+        <v>43.817999999999998</v>
+      </c>
+      <c r="S6" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>364.01799999999997</v>
+      </c>
+      <c r="V6" s="3">
+        <v>16.93</v>
+      </c>
+      <c r="W6" s="3">
+        <v>6.6000000000000017E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>2.748</v>
+        <v>565.70600000000002</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6.5803390197001974E-3</v>
       </c>
       <c r="F7">
-        <v>2.92</v>
+        <v>245.32400000000001</v>
       </c>
       <c r="G7">
-        <v>26.8</v>
+        <v>221.2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.934</v>
+        <v>60.732000000000014</v>
       </c>
       <c r="J7">
-        <v>173.2</v>
+        <v>432.4</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>65.61</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>423.1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>16.876000000000001</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.158</v>
+      </c>
+      <c r="R7" s="3">
+        <v>62.213999999999999</v>
+      </c>
+      <c r="S7" s="3">
+        <v>149.6</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>411.1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>20.672000000000001</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.126</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>200</v>
       </c>
       <c r="D8">
-        <v>8.475999999999999</v>
+        <v>917.30400000000009</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.12917553855660471</v>
       </c>
       <c r="F8">
-        <v>7.286</v>
+        <v>712.58799999999997</v>
       </c>
       <c r="G8">
-        <v>31.4</v>
+        <v>351.8</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.4030612244897959E-2</v>
       </c>
       <c r="I8">
-        <v>6.188</v>
+        <v>130.76599999999999</v>
       </c>
       <c r="J8">
-        <v>321.2</v>
+        <v>535.6</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>121.636</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>462.6</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.19</v>
+      </c>
+      <c r="R8" s="3">
+        <v>144.012</v>
+      </c>
+      <c r="S8" s="3">
+        <v>320.2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>453.37599999999998</v>
+      </c>
+      <c r="V8" s="3">
+        <v>26.527999999999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>500</v>
       </c>
       <c r="D9">
-        <v>31.058</v>
+        <v>1000.3579999999999</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>24.67</v>
-      </c>
-      <c r="G9">
-        <v>35.2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>0.25844681798320218</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1705.4159999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>407</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9.7062579821200513E-3</v>
       </c>
       <c r="I9">
-        <v>13.794</v>
+        <v>327.29199999999997</v>
       </c>
       <c r="J9">
-        <v>695.4</v>
+        <v>1039.5999999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>333.02600000000001</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>322.2</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>490.6</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>57.381999999999991</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.184</v>
+      </c>
+      <c r="R9" s="3">
+        <v>339.01799999999997</v>
+      </c>
+      <c r="S9" s="3">
+        <v>416</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>490.6</v>
+      </c>
+      <c r="V9" s="3">
+        <v>57.707999999999991</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Python\Two-stage Recoverable FLP\Local Branching\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB8C24-599D-4756-9164-84A50555DA46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>|N|</t>
   </si>
@@ -56,17 +50,20 @@
   </si>
   <si>
     <t>PR:time</t>
+  </si>
+  <si>
+    <t>ROOT_val</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,43 +71,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,33 +111,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -208,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,19 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +483,11 @@
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -576,67 +498,70 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>3.8140000000000001</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.434000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>111.6</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.554</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>225.4</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.7519999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.356</v>
+        <v>7.118</v>
       </c>
       <c r="S2">
-        <v>52.6</v>
+        <v>7.8</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>301.62400000000002</v>
+        <v>56.5</v>
       </c>
       <c r="V2">
-        <v>9.2799999999999976</v>
+        <v>4.907999999999999</v>
       </c>
       <c r="W2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>84.8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -647,67 +572,70 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>25.318000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>129.92599999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>223.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.765999999999998</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>452.8</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>31.24</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>319.8</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>314.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.4880000000000013</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>32.74</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>225.4</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>311.7</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>12.064</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -718,67 +646,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>125.134</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>205.71199999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>320.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>53.613999999999997</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>394.8</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>58.445999999999991</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>303.2</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>346.1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>9.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>55.331999999999987</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>198.6</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>342.25400000000002</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>10.994</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.4E-2</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -789,67 +720,70 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>129.464</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>148.14599999999999</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>208.6</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>42.712000000000003</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>421.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.01</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>315.8</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>361.5</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.462</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>49.999999999999993</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>184.8</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>344.42200000000003</v>
-      </c>
-      <c r="V5" s="4">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,67 +794,70 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>110.024</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>59.496000000000002</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.358000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>225.2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>40.35</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>378.9</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.507999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.11</v>
-      </c>
-      <c r="R6" s="3">
-        <v>43.817999999999998</v>
-      </c>
-      <c r="S6" s="3">
-        <v>84.6</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>364.01799999999997</v>
-      </c>
-      <c r="V6" s="3">
-        <v>16.93</v>
-      </c>
-      <c r="W6" s="3">
-        <v>6.6000000000000017E-2</v>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,67 +868,70 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>565.70600000000002</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>6.5803390197001974E-3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>245.32400000000001</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>221.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.732000000000014</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>432.4</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>65.61</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>423.1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>16.876000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.158</v>
-      </c>
-      <c r="R7" s="3">
-        <v>62.213999999999999</v>
-      </c>
-      <c r="S7" s="3">
-        <v>149.6</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>411.1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>20.672000000000001</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.126</v>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,67 +942,70 @@
         <v>200</v>
       </c>
       <c r="D8">
-        <v>917.30400000000009</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.12917553855660471</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>712.58799999999997</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>351.8</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.4030612244897959E-2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>130.76599999999999</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>535.6</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>121.636</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>462.6</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.19</v>
-      </c>
-      <c r="R8" s="3">
-        <v>144.012</v>
-      </c>
-      <c r="S8" s="3">
-        <v>320.2</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>453.37599999999998</v>
-      </c>
-      <c r="V8" s="3">
-        <v>26.527999999999999</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0.16600000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1073,68 +1016,70 @@
         <v>500</v>
       </c>
       <c r="D9">
-        <v>1000.3579999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.25844681798320218</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1705.4159999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <v>407</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9.7062579821200513E-3</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>327.29199999999997</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1039.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>333.02600000000001</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>322.2</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>490.6</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>57.381999999999991</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.184</v>
-      </c>
-      <c r="R9" s="3">
-        <v>339.01799999999997</v>
-      </c>
-      <c r="S9" s="3">
-        <v>416</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>490.6</v>
-      </c>
-      <c r="V9" s="3">
-        <v>57.707999999999991</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.184</v>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,37 +492,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -531,34 +531,34 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>532.2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.288</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>7.118</v>
+        <v>1.374</v>
       </c>
       <c r="S2">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>56.5</v>
+        <v>532.2</v>
       </c>
       <c r="V2">
-        <v>4.907999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="X2">
-        <v>84.8</v>
+        <v>535.6</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -566,37 +566,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.418</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>571.7</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4360000000000001</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>567.6279999999999</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.866</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>572.7</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -640,55 +640,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.072</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.918</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.488</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>587.2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>6.828</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>587.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>588.9</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -714,37 +714,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.688</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.262</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.176</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>617.3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3.402</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>13.708</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>617.3</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>637.9</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -788,73 +788,73 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.168000000000001</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8.396000000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.486</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>351.6</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>26.08</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>661.3</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>27.242</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>661.3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7.944</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>676.9</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -862,55 +862,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>41.246</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25.458</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.538</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>66.41999999999999</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>699.3</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>19.362</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>69.404</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>699.3</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>19.48</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>734.8</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -939,70 +939,70 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.538000000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>50.838</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>140.2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.404</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>379.4</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.644</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>330.5</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>16.724</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>233.6</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>314.074</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.08399999999999999</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1013,70 +1013,218 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>34.246</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>229.184</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>99.97999999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>372.8</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>85.236</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>378.2</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>340.4</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.258000000000001</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>336.4</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>340.4</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>5.406000000000001</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>384.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>145.52</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>110.822</v>
+      </c>
+      <c r="G10">
+        <v>129.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>39.842</v>
+      </c>
+      <c r="J10">
+        <v>220.4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>50.372</v>
+      </c>
+      <c r="M10">
+        <v>139</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>377.2</v>
+      </c>
+      <c r="P10">
+        <v>12.222</v>
+      </c>
+      <c r="Q10">
+        <v>0.066</v>
+      </c>
+      <c r="R10">
+        <v>50.982</v>
+      </c>
+      <c r="S10">
+        <v>89.2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>372.724</v>
+      </c>
+      <c r="V10">
+        <v>15.822</v>
+      </c>
+      <c r="W10">
+        <v>0.052</v>
+      </c>
+      <c r="X10">
+        <v>418.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>736.15</v>
+      </c>
+      <c r="E11">
+        <v>0.008</v>
+      </c>
+      <c r="F11">
+        <v>360.266</v>
+      </c>
+      <c r="G11">
+        <v>241.2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>81.764</v>
+      </c>
+      <c r="J11">
+        <v>444.4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>92.38400000000001</v>
+      </c>
+      <c r="M11">
+        <v>240.4</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>407.3</v>
+      </c>
+      <c r="P11">
+        <v>22.758</v>
+      </c>
+      <c r="Q11">
+        <v>0.098</v>
+      </c>
+      <c r="R11">
+        <v>90.69199999999999</v>
+      </c>
+      <c r="S11">
+        <v>124.4</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>407.3</v>
+      </c>
+      <c r="V11">
+        <v>22.676</v>
+      </c>
+      <c r="W11">
+        <v>0.098</v>
+      </c>
+      <c r="X11">
+        <v>472.3</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,6 +1456,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>685.0699999999999</v>
+      </c>
+      <c r="O14">
+        <v>2661.6</v>
+      </c>
+      <c r="P14">
+        <v>0.038</v>
+      </c>
+      <c r="Q14">
+        <v>261</v>
+      </c>
+      <c r="R14">
+        <v>84.86600000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.02</v>
+      </c>
+      <c r="T14">
+        <v>646.096</v>
+      </c>
+      <c r="U14">
+        <v>273.8</v>
+      </c>
+      <c r="V14">
+        <v>0.198</v>
+      </c>
+      <c r="W14">
+        <v>264.392</v>
+      </c>
+      <c r="X14">
+        <v>537.824</v>
+      </c>
+      <c r="Y14">
+        <v>0.006</v>
+      </c>
+      <c r="Z14">
+        <v>313.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>|N|</t>
   </si>
@@ -22,19 +22,13 @@
     <t>|k|</t>
   </si>
   <si>
-    <t>LIP:time</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>BD:time</t>
+    <t>BC:time</t>
   </si>
   <si>
     <t>cuts</t>
   </si>
   <si>
-    <t>BC:time</t>
+    <t>gap</t>
   </si>
   <si>
     <t>objval</t>
@@ -53,6 +47,9 @@
   </si>
   <si>
     <t>PR:time</t>
+  </si>
+  <si>
+    <t>HY:time</t>
   </si>
   <si>
     <t>ROOT_val</t>
@@ -413,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,64 +436,67 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -575,8 +575,11 @@
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -655,8 +658,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -735,8 +741,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -815,8 +824,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -895,8 +907,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -975,8 +990,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,61 +1020,64 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>23.294</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>309.4</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.158</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>158.6</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>287.9</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>12.936</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>16.854</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>296.3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>5.662</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.026</v>
+      </c>
+      <c r="AA8">
+        <v>336.8</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1082,61 +1103,64 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>72.24199999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>413.8</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>329.1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.022</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>69.10600000000001</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>333.4</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>324.6</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>19.428</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>65.05799999999999</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>337.8</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>325.1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="AA9">
+        <v>357.4</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1162,61 +1186,64 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>46.558</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>121.4</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>359.8</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.292</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>31.898</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>19.83</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>39.242</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>102.8</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>19.346</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>375.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1242,61 +1269,64 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>86.58399999999999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>381.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>25.908</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>79.974</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>151.6</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>367.9</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>59.20800000000001</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>85.26599999999999</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>381.8</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>25.728</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.036</v>
+      </c>
+      <c r="AA11">
+        <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1322,61 +1352,64 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>174.306</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>323.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>412.1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>57.712</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>185.62</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>394.7</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>157.524</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>190.086</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>274.6</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>405.6</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>67.27200000000001</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.038</v>
+      </c>
+      <c r="AA12">
+        <v>430.7</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1402,61 +1435,64 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>564.6279999999999</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>372.8</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>449.7</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>151.208</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>630.5440000000001</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>118.6</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>430.6</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>397.83</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>647.8640000000001</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>332.8</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>447.4</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>156.144</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.044</v>
+      </c>
+      <c r="AA13">
+        <v>493.6</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,58 +1518,144 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>693.726</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2522.6</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>260.1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>73.72199999999999</v>
       </c>
       <c r="N14">
-        <v>685.0699999999999</v>
+        <v>0.008</v>
       </c>
       <c r="O14">
-        <v>2661.6</v>
+        <v>647.626</v>
       </c>
       <c r="P14">
-        <v>0.038</v>
+        <v>114.2</v>
       </c>
       <c r="Q14">
-        <v>261</v>
+        <v>0.106</v>
       </c>
       <c r="R14">
-        <v>84.86600000000001</v>
+        <v>263.7</v>
       </c>
       <c r="S14">
-        <v>0.02</v>
+        <v>631.2059999999999</v>
       </c>
       <c r="T14">
-        <v>646.096</v>
+        <v>0.002</v>
       </c>
       <c r="U14">
-        <v>273.8</v>
+        <v>672.734</v>
       </c>
       <c r="V14">
-        <v>0.198</v>
+        <v>694.2</v>
       </c>
       <c r="W14">
-        <v>264.392</v>
+        <v>0.076</v>
       </c>
       <c r="X14">
-        <v>537.824</v>
+        <v>267.1</v>
       </c>
       <c r="Y14">
-        <v>0.006</v>
+        <v>27.296</v>
       </c>
       <c r="Z14">
+        <v>0.01</v>
+      </c>
+      <c r="AA14">
         <v>313.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1007.168</v>
+      </c>
+      <c r="J15">
+        <v>1488.8</v>
+      </c>
+      <c r="K15">
+        <v>0.128</v>
+      </c>
+      <c r="L15">
+        <v>257.6</v>
+      </c>
+      <c r="M15">
+        <v>97.166</v>
+      </c>
+      <c r="N15">
+        <v>0.004</v>
+      </c>
+      <c r="O15">
+        <v>982.5679999999999</v>
+      </c>
+      <c r="P15">
+        <v>350.2</v>
+      </c>
+      <c r="Q15">
+        <v>0.146</v>
+      </c>
+      <c r="R15">
+        <v>264.4</v>
+      </c>
+      <c r="S15">
+        <v>271.636</v>
+      </c>
+      <c r="T15">
+        <v>0.002</v>
+      </c>
+      <c r="U15">
+        <v>989.45</v>
+      </c>
+      <c r="V15">
+        <v>582.2</v>
+      </c>
+      <c r="W15">
+        <v>0.102</v>
+      </c>
+      <c r="X15">
+        <v>259.5</v>
+      </c>
+      <c r="Y15">
+        <v>64.55600000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.01</v>
+      </c>
+      <c r="AA15">
+        <v>288.8</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,61 +1020,61 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.294</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>201.6</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>309.4</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.158</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>158.6</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>287.9</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>12.936</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>16.854</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>296.3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>5.662</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>336.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1103,61 +1103,61 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>72.24199999999999</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>413.8</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>329.1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7.022</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>69.10600000000001</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>333.4</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>324.6</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>19.428</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>65.05799999999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>337.8</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>325.1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>8.353999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>357.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1171,43 +1171,43 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>31.308</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>220.4</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>21.462</v>
       </c>
       <c r="I10">
-        <v>46.558</v>
+        <v>183.15</v>
       </c>
       <c r="J10">
-        <v>121.4</v>
+        <v>102.6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>359.8</v>
+        <v>352</v>
       </c>
       <c r="M10">
-        <v>11.292</v>
+        <v>45.418</v>
       </c>
       <c r="N10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>31.898</v>
+        <v>39.764</v>
       </c>
       <c r="P10">
-        <v>95.8</v>
+        <v>91.8</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1216,31 +1216,31 @@
         <v>352</v>
       </c>
       <c r="S10">
-        <v>19.83</v>
+        <v>32.094</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>39.242</v>
+        <v>39.692</v>
       </c>
       <c r="V10">
-        <v>102.8</v>
+        <v>109</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>352</v>
+        <v>362.7</v>
       </c>
       <c r="Y10">
-        <v>19.346</v>
+        <v>13.096</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="AA10">
-        <v>375.6</v>
+        <v>371.4</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1269,61 +1269,61 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>86.58399999999999</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>381.8</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>25.908</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>79.974</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>151.6</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>367.9</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>59.20800000000001</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>85.26599999999999</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>381.8</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>25.728</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1352,61 +1352,61 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>174.306</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>323.2</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>412.1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>57.712</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.05400000000000001</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>185.62</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>394.7</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>157.524</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>190.086</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>274.6</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>405.6</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>67.27200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>430.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1435,61 +1435,61 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>564.6279999999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>372.8</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>449.7</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>151.208</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>630.5440000000001</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>118.6</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>430.6</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>397.83</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>647.8640000000001</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>332.8</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>447.4</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>156.144</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>493.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1518,61 +1518,61 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>693.726</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2522.6</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.05600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>260.1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>73.72199999999999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>647.626</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>114.2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>263.7</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>631.2059999999999</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>672.734</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>694.2</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>267.1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>27.296</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>313.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1601,61 +1601,1389 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1007.168</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1488.8</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>257.6</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>97.166</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>982.5679999999999</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>350.2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>264.4</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>271.636</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>989.45</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>582.2</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>259.5</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>64.55600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>288.8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,76 +2250,76 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>100.326</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>58.9</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>70.476</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>100.532</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>23.222</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>101.644</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>14.356</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>101.622</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>59.4</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>23.884</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>62.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2333,76 +2333,657 @@
         <v>200</v>
       </c>
       <c r="D24">
-        <v>509.0780000000001</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>282.8</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>309.2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>422.836</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>588.034</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>315.7</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>329.464</v>
+        <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>541.5</v>
+      </c>
+      <c r="E25">
+        <v>687.4</v>
+      </c>
+      <c r="F25">
+        <v>0.352</v>
+      </c>
+      <c r="G25">
+        <v>344.8</v>
+      </c>
+      <c r="H25">
+        <v>433.266</v>
+      </c>
+      <c r="I25">
+        <v>1204.356</v>
+      </c>
+      <c r="J25">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>0.318</v>
+      </c>
+      <c r="L25">
+        <v>334.6</v>
+      </c>
+      <c r="M25">
+        <v>645.35</v>
+      </c>
+      <c r="N25">
+        <v>0.028</v>
+      </c>
+      <c r="O25">
+        <v>612.5699999999999</v>
+      </c>
+      <c r="P25">
+        <v>26.6</v>
+      </c>
+      <c r="Q25">
+        <v>0.334</v>
+      </c>
+      <c r="R25">
+        <v>349.9</v>
+      </c>
+      <c r="S25">
+        <v>392.996</v>
+      </c>
+      <c r="T25">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="U25">
+        <v>806.222</v>
+      </c>
+      <c r="V25">
+        <v>34.4</v>
+      </c>
+      <c r="W25">
+        <v>0.338</v>
+      </c>
+      <c r="X25">
+        <v>344.6</v>
+      </c>
+      <c r="Y25">
+        <v>534.16</v>
+      </c>
+      <c r="Z25">
         <v>0.018</v>
       </c>
-      <c r="O24">
-        <v>526.308</v>
-      </c>
-      <c r="P24">
-        <v>15</v>
-      </c>
-      <c r="Q24">
-        <v>0.3099999999999999</v>
-      </c>
-      <c r="R24">
-        <v>312.9</v>
-      </c>
-      <c r="S24">
-        <v>289.888</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>544.17</v>
-      </c>
-      <c r="V24">
-        <v>18</v>
-      </c>
-      <c r="W24">
-        <v>0.316</v>
-      </c>
-      <c r="X24">
-        <v>318.5</v>
-      </c>
-      <c r="Y24">
-        <v>289.544</v>
-      </c>
-      <c r="Z24">
-        <v>0.008</v>
-      </c>
-      <c r="AA24">
-        <v>322.6</v>
+      <c r="AA25">
+        <v>349.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>482.55</v>
+      </c>
+      <c r="E26">
+        <v>737.8</v>
+      </c>
+      <c r="F26">
+        <v>0.16</v>
+      </c>
+      <c r="G26">
+        <v>199.4</v>
+      </c>
+      <c r="H26">
+        <v>266.91</v>
+      </c>
+      <c r="I26">
+        <v>468.2980000000001</v>
+      </c>
+      <c r="J26">
+        <v>210.8</v>
+      </c>
+      <c r="K26">
+        <v>0.168</v>
+      </c>
+      <c r="L26">
+        <v>201.8</v>
+      </c>
+      <c r="M26">
+        <v>199.718</v>
+      </c>
+      <c r="N26">
+        <v>0.028</v>
+      </c>
+      <c r="O26">
+        <v>475.4320000000001</v>
+      </c>
+      <c r="P26">
+        <v>347.6</v>
+      </c>
+      <c r="Q26">
+        <v>0.176</v>
+      </c>
+      <c r="R26">
+        <v>208.3</v>
+      </c>
+      <c r="S26">
+        <v>166.9</v>
+      </c>
+      <c r="T26">
+        <v>0.04</v>
+      </c>
+      <c r="U26">
+        <v>454.372</v>
+      </c>
+      <c r="V26">
+        <v>351.6</v>
+      </c>
+      <c r="W26">
+        <v>0.182</v>
+      </c>
+      <c r="X26">
+        <v>201.7</v>
+      </c>
+      <c r="Y26">
+        <v>152.35</v>
+      </c>
+      <c r="Z26">
+        <v>0.01</v>
+      </c>
+      <c r="AA26">
+        <v>222.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>502.514</v>
+      </c>
+      <c r="E27">
+        <v>414.4</v>
+      </c>
+      <c r="F27">
+        <v>0.186</v>
+      </c>
+      <c r="G27">
+        <v>217.3</v>
+      </c>
+      <c r="H27">
+        <v>346.692</v>
+      </c>
+      <c r="I27">
+        <v>502.3439999999999</v>
+      </c>
+      <c r="J27">
+        <v>128</v>
+      </c>
+      <c r="K27">
+        <v>0.194</v>
+      </c>
+      <c r="L27">
+        <v>222.6</v>
+      </c>
+      <c r="M27">
+        <v>239.198</v>
+      </c>
+      <c r="N27">
+        <v>0.036</v>
+      </c>
+      <c r="O27">
+        <v>432.414</v>
+      </c>
+      <c r="P27">
+        <v>110.6</v>
+      </c>
+      <c r="Q27">
+        <v>0.208</v>
+      </c>
+      <c r="R27">
+        <v>226.5</v>
+      </c>
+      <c r="S27">
+        <v>107.568</v>
+      </c>
+      <c r="T27">
+        <v>0.04</v>
+      </c>
+      <c r="U27">
+        <v>441.092</v>
+      </c>
+      <c r="V27">
+        <v>152.4</v>
+      </c>
+      <c r="W27">
+        <v>0.18</v>
+      </c>
+      <c r="X27">
+        <v>220.4</v>
+      </c>
+      <c r="Y27">
+        <v>184.594</v>
+      </c>
+      <c r="Z27">
+        <v>0.028</v>
+      </c>
+      <c r="AA27">
+        <v>234.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>524.5139999999999</v>
+      </c>
+      <c r="E28">
+        <v>176.8</v>
+      </c>
+      <c r="F28">
+        <v>0.23</v>
+      </c>
+      <c r="G28">
+        <v>230.2</v>
+      </c>
+      <c r="H28">
+        <v>257.754</v>
+      </c>
+      <c r="I28">
+        <v>517.7800000000001</v>
+      </c>
+      <c r="J28">
+        <v>42.6</v>
+      </c>
+      <c r="K28">
+        <v>0.24</v>
+      </c>
+      <c r="L28">
+        <v>240.4</v>
+      </c>
+      <c r="M28">
+        <v>194.042</v>
+      </c>
+      <c r="N28">
+        <v>0.048</v>
+      </c>
+      <c r="O28">
+        <v>518.784</v>
+      </c>
+      <c r="P28">
+        <v>22.8</v>
+      </c>
+      <c r="Q28">
+        <v>0.252</v>
+      </c>
+      <c r="R28">
+        <v>231.5</v>
+      </c>
+      <c r="S28">
+        <v>235.858</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>513.0060000000001</v>
+      </c>
+      <c r="V28">
+        <v>35.6</v>
+      </c>
+      <c r="W28">
+        <v>0.242</v>
+      </c>
+      <c r="X28">
+        <v>234.9</v>
+      </c>
+      <c r="Y28">
+        <v>201.244</v>
+      </c>
+      <c r="Z28">
+        <v>0.024</v>
+      </c>
+      <c r="AA28">
+        <v>244.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>519.248</v>
+      </c>
+      <c r="E29">
+        <v>199.4</v>
+      </c>
+      <c r="F29">
+        <v>0.26</v>
+      </c>
+      <c r="G29">
+        <v>250.5</v>
+      </c>
+      <c r="H29">
+        <v>283.516</v>
+      </c>
+      <c r="I29">
+        <v>532.3799999999999</v>
+      </c>
+      <c r="J29">
+        <v>7.6</v>
+      </c>
+      <c r="K29">
+        <v>0.256</v>
+      </c>
+      <c r="L29">
+        <v>245.4</v>
+      </c>
+      <c r="M29">
+        <v>237.926</v>
+      </c>
+      <c r="N29">
+        <v>0.004</v>
+      </c>
+      <c r="O29">
+        <v>530.588</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>0.24</v>
+      </c>
+      <c r="R29">
+        <v>243.4</v>
+      </c>
+      <c r="S29">
+        <v>249.976</v>
+      </c>
+      <c r="T29">
+        <v>0.01</v>
+      </c>
+      <c r="U29">
+        <v>521.6080000000001</v>
+      </c>
+      <c r="V29">
+        <v>10.6</v>
+      </c>
+      <c r="W29">
+        <v>0.224</v>
+      </c>
+      <c r="X29">
+        <v>240</v>
+      </c>
+      <c r="Y29">
+        <v>280.728</v>
+      </c>
+      <c r="Z29">
+        <v>0.006</v>
+      </c>
+      <c r="AA29">
+        <v>257.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>569.412</v>
+      </c>
+      <c r="E30">
+        <v>247</v>
+      </c>
+      <c r="F30">
+        <v>0.298</v>
+      </c>
+      <c r="G30">
+        <v>281.7</v>
+      </c>
+      <c r="H30">
+        <v>445.82</v>
+      </c>
+      <c r="I30">
+        <v>1071.946</v>
+      </c>
+      <c r="J30">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.278</v>
+      </c>
+      <c r="L30">
+        <v>275.9</v>
+      </c>
+      <c r="M30">
+        <v>880.9219999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.016</v>
+      </c>
+      <c r="O30">
+        <v>626.348</v>
+      </c>
+      <c r="P30">
+        <v>7.6</v>
+      </c>
+      <c r="Q30">
+        <v>0.268</v>
+      </c>
+      <c r="R30">
+        <v>281</v>
+      </c>
+      <c r="S30">
+        <v>438.02</v>
+      </c>
+      <c r="T30">
+        <v>0.042</v>
+      </c>
+      <c r="U30">
+        <v>780.6560000000001</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>0.296</v>
+      </c>
+      <c r="X30">
+        <v>279.4</v>
+      </c>
+      <c r="Y30">
+        <v>549.9219999999999</v>
+      </c>
+      <c r="Z30">
+        <v>0.006</v>
+      </c>
+      <c r="AA30">
+        <v>288.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>716.662</v>
+      </c>
+      <c r="E31">
+        <v>430.6</v>
+      </c>
+      <c r="F31">
+        <v>0.654</v>
+      </c>
+      <c r="G31">
+        <v>328.1</v>
+      </c>
+      <c r="H31">
+        <v>572.308</v>
+      </c>
+      <c r="I31">
+        <v>14664.34</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>0.254</v>
+      </c>
+      <c r="L31">
+        <v>238</v>
+      </c>
+      <c r="M31">
+        <v>8901.448</v>
+      </c>
+      <c r="N31">
+        <v>-0.352</v>
+      </c>
+      <c r="O31">
+        <v>1625.544</v>
+      </c>
+      <c r="P31">
+        <v>9.6</v>
+      </c>
+      <c r="Q31">
+        <v>0.342</v>
+      </c>
+      <c r="R31">
+        <v>316.2</v>
+      </c>
+      <c r="S31">
+        <v>1004.442</v>
+      </c>
+      <c r="T31">
+        <v>0.046</v>
+      </c>
+      <c r="U31">
+        <v>7171.794</v>
+      </c>
+      <c r="V31">
+        <v>8.6</v>
+      </c>
+      <c r="W31">
+        <v>0.286</v>
+      </c>
+      <c r="X31">
+        <v>279.6</v>
+      </c>
+      <c r="Y31">
+        <v>5292.91</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>316.2</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output_final.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2239,172 +2239,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>100.326</v>
-      </c>
-      <c r="E23">
-        <v>26.8</v>
-      </c>
-      <c r="F23">
-        <v>0.052</v>
-      </c>
-      <c r="G23">
-        <v>58.9</v>
-      </c>
-      <c r="H23">
-        <v>70.476</v>
-      </c>
-      <c r="I23">
-        <v>100.532</v>
-      </c>
-      <c r="J23">
-        <v>12.6</v>
-      </c>
-      <c r="K23">
-        <v>0.058</v>
-      </c>
-      <c r="L23">
-        <v>59.4</v>
-      </c>
-      <c r="M23">
-        <v>23.222</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>101.644</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>0.066</v>
-      </c>
-      <c r="R23">
-        <v>62.4</v>
-      </c>
-      <c r="S23">
-        <v>14.356</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>101.622</v>
-      </c>
-      <c r="V23">
-        <v>1.6</v>
-      </c>
-      <c r="W23">
-        <v>0.058</v>
-      </c>
-      <c r="X23">
-        <v>59.4</v>
-      </c>
-      <c r="Y23">
-        <v>23.884</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
-        <v>509.0780000000001</v>
-      </c>
-      <c r="E24">
-        <v>282.8</v>
-      </c>
-      <c r="F24">
-        <v>0.292</v>
-      </c>
-      <c r="G24">
-        <v>309.2</v>
-      </c>
-      <c r="H24">
-        <v>422.836</v>
-      </c>
-      <c r="I24">
-        <v>588.034</v>
-      </c>
-      <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <v>0.304</v>
-      </c>
-      <c r="L24">
-        <v>315.7</v>
-      </c>
-      <c r="M24">
-        <v>329.464</v>
-      </c>
-      <c r="N24">
-        <v>0.018</v>
-      </c>
-      <c r="O24">
-        <v>526.308</v>
-      </c>
-      <c r="P24">
-        <v>15</v>
-      </c>
-      <c r="Q24">
-        <v>0.3099999999999999</v>
-      </c>
-      <c r="R24">
-        <v>312.9</v>
-      </c>
-      <c r="S24">
-        <v>289.888</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>544.17</v>
-      </c>
-      <c r="V24">
-        <v>18</v>
-      </c>
-      <c r="W24">
-        <v>0.316</v>
-      </c>
-      <c r="X24">
-        <v>318.5</v>
-      </c>
-      <c r="Y24">
-        <v>289.544</v>
-      </c>
-      <c r="Z24">
-        <v>0.008</v>
-      </c>
-      <c r="AA24">
-        <v>322.6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
